--- a/biology/Botanique/Liste_des_genres_de_Fabaceae/Liste_des_genres_de_Fabaceae.xlsx
+++ b/biology/Botanique/Liste_des_genres_de_Fabaceae/Liste_des_genres_de_Fabaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste complète des genres de la famille des Fabaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres par sous-familles et tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (27 mai 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (27 mai 2010) :
 sous-famille des Caesalpinioideae
 tribu des Caesalpinieae
 Acrocarpus
@@ -853,7 +867,7 @@
 Zornia
 tribu des Desmodieae
 Alysicarpus
-Aphyllodium[2]
+Aphyllodium
 Campylotropis
 Dendrolobium
 Desmodium
@@ -863,7 +877,7 @@
 Tadehagi
 tribu des Dipterygeae
 Dipteryx
-Monopteryx[3]
+Monopteryx
 Pterodon
 Taralea
 tribu des Euchresteae
@@ -1222,9 +1236,11 @@
           <t>Liste des genres dans l'ordre alphabétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Royal Botanic Gardens, Kew[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Royal Botanic Gardens, Kew :
 Sommaire :
 Haut – A
 B
@@ -1300,7 +1316,7 @@
 Antopetitia A.Rich.
 Aotus Sm.
 Aphanocalyx Oliv.
-Aphyllodium (DC.) Gagnep[2].
+Aphyllodium (DC.) Gagnep.
 Apios Fabr.
 Apoplanesia C.Presl
 Apuleia Mart.
@@ -1329,7 +1345,7 @@
 Baphiastrum Harms
 Baphiopsis Benth. ex Baker
 Baptisia Vent.
-Barnebydendron J.H.Kirkbr[5].
+Barnebydendron J.H.Kirkbr.
 Batesia Spruce ex Benth.
 Bathiaea Drake
 Baudouinia Baill.
@@ -1352,7 +1368,7 @@
 Brachycylix (Harms) R.S.Cowan
 Brachysema R.Br.
 Brachystegia Benth.
-Brandzeia Baill[6].
+Brandzeia Baill.
 Brenierea Humbert
 Brodriguesia R.S.Cowan
 Brongniartia Kunth
@@ -1596,7 +1612,7 @@
 Hymenostegia (Benth.) Harms
 Hypocalyptus Thunb.
 I
-Icuria Wieringa[7]
+Icuria Wieringa
 Indigofera L.
 Indopiptadenia Brenan
 Inga Mill.
@@ -1611,7 +1627,7 @@
 Julbernardia Pellegr.
 K
 Kalappia Kosterm.
-Kanaloa Lorence &amp; K.R.Wood[8]
+Kanaloa Lorence &amp; K.R.Wood
 Kennedia Vent.
 Kingiodendron Harms
 Koompassia Maingay
@@ -1856,7 +1872,7 @@
 Scorodophloeus Harms
 Scorpiurus L.
 Sellocharis Taub.
-Senegalia Raf[9].
+Senegalia Raf.
 Senna Mill.
 Serianthes Benth.
 Sesbania Scop.
@@ -1927,7 +1943,7 @@
 Uribea Dugand &amp; Romero
 Urodon Turcz.
 V
-Vachellia Raf[9]
+Vachellia Raf
 Vandasina Rauschert
 Vatairea Aubl.
 Vataireopsis Ducke
